--- a/Nanosight_Analysis.xlsx
+++ b/Nanosight_Analysis.xlsx
@@ -5,10 +5,11 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Nanosight Standards" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Nanosight Samples" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -19,16 +20,85 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="21">
+  <si>
+    <t xml:space="preserve">Intra-assay CV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nano_day</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Day_N</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Day_mean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Day_sd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Day_se</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Day_cv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inter-assay CV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Exp_N</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Exp_mean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Exp_sd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Exp_se</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Exp_cv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Individual Sample Vesicle Concentration (particles/ml)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Outlier Reason</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Day</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sample_ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">particle_conc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Summary Statistics for Gestational Day</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&gt;1.5 IQR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Insufficient sample to rerun</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -45,21 +115,68 @@
       <name val="Arial"/>
       <family val="0"/>
     </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF6600"/>
+        <bgColor rgb="FFFF9900"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="hair"/>
+      <right style="hair"/>
+      <top style="hair"/>
+      <bottom style="hair"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="hair"/>
+      <right style="hair"/>
+      <top style="hair"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="hair"/>
+      <right style="hair"/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="hair"/>
+      <right style="hair"/>
+      <top/>
+      <bottom style="hair"/>
       <diagonal/>
     </border>
   </borders>
@@ -88,8 +205,44 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="10">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -105,22 +258,546 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>219960</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>28440</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>219600</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>48600</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="0" name="Image 1" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="219960" y="2954520"/>
+          <a:ext cx="6400440" cy="4571640"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>200160</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>86400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>770400</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>57240</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1" name="Image 2" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId2"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7400880" y="248760"/>
+          <a:ext cx="6971040" cy="4847760"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>389520</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>16920</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>186120</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>56880</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Image 3" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6042240" y="2617560"/>
+          <a:ext cx="12801240" cy="9143640"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>378000</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>146880</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>174600</xdr:colOff>
+      <xdr:row>132</xdr:row>
+      <xdr:rowOff>24480</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Image 4" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId2"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6030720" y="12338640"/>
+          <a:ext cx="12801240" cy="9143640"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>205200</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>122040</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>1800</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>162000</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Image 5" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId3"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19675440" y="2722680"/>
+          <a:ext cx="12801240" cy="9143640"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>169560</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>81000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>778680</xdr:colOff>
+      <xdr:row>132</xdr:row>
+      <xdr:rowOff>121320</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Image 6" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId4"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19639800" y="12435480"/>
+          <a:ext cx="12801240" cy="9143640"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>751680</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>122040</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>54</xdr:col>
+      <xdr:colOff>547920</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>162000</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Image 7" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId5"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="33226560" y="2722680"/>
+          <a:ext cx="12801240" cy="9143640"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>680760</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>54</xdr:col>
+      <xdr:colOff>477000</xdr:colOff>
+      <xdr:row>132</xdr:row>
+      <xdr:rowOff>40320</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Image 8" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId6"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="33155640" y="12354480"/>
+          <a:ext cx="12801240" cy="9143640"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="53" zoomScaleNormal="53" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="T31" activeCellId="0" sqref="T31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.3418367346939"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="C3" s="2" t="n">
+        <v>48125217697.9167</v>
+      </c>
+      <c r="D3" s="2" t="n">
+        <v>617848972.093806</v>
+      </c>
+      <c r="E3" s="2" t="n">
+        <v>436885197.916668</v>
+      </c>
+      <c r="F3" s="3" t="n">
+        <v>0.0128383621238258</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" s="2" t="n">
+        <v>57205142072.9167</v>
+      </c>
+      <c r="D4" s="2" t="n">
+        <v>19921324959.0287</v>
+      </c>
+      <c r="E4" s="2" t="n">
+        <v>14086503968.75</v>
+      </c>
+      <c r="F4" s="3" t="n">
+        <v>0.348243606031708</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="C5" s="2" t="n">
+        <v>44222501541.6667</v>
+      </c>
+      <c r="D5" s="2" t="n">
+        <v>3429198451.60834</v>
+      </c>
+      <c r="E5" s="2" t="n">
+        <v>2424809479.16667</v>
+      </c>
+      <c r="F5" s="3" t="n">
+        <v>0.0775441988142017</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="C6" s="2" t="n">
+        <v>36833416218.75</v>
+      </c>
+      <c r="D6" s="2" t="n">
+        <v>11902308912.421</v>
+      </c>
+      <c r="E6" s="2" t="n">
+        <v>8416203343.75</v>
+      </c>
+      <c r="F6" s="3" t="n">
+        <v>0.323138881328151</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="C7" s="2" t="n">
+        <v>38474626989.5833</v>
+      </c>
+      <c r="D7" s="2" t="n">
+        <v>2324782674.254</v>
+      </c>
+      <c r="E7" s="2" t="n">
+        <v>1643869593.75</v>
+      </c>
+      <c r="F7" s="3" t="n">
+        <v>0.0604237872113332</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="C8" s="2" t="n">
+        <v>35047495583.3333</v>
+      </c>
+      <c r="D8" s="2" t="n">
+        <v>7903830149.18208</v>
+      </c>
+      <c r="E8" s="2" t="n">
+        <v>5588851895.83333</v>
+      </c>
+      <c r="F8" s="3" t="n">
+        <v>0.225517687287782</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="C9" s="2" t="n">
+        <v>44769424729.1667</v>
+      </c>
+      <c r="D9" s="2" t="n">
+        <v>6071491206.69237</v>
+      </c>
+      <c r="E9" s="2" t="n">
+        <v>4293192604.16667</v>
+      </c>
+      <c r="F9" s="3" t="n">
+        <v>0.135616913628485</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B16" s="2" t="n">
+        <v>43525403547.619</v>
+      </c>
+      <c r="C16" s="2" t="n">
+        <v>7664800849.24021</v>
+      </c>
+      <c r="D16" s="2" t="n">
+        <v>2897022413.70375</v>
+      </c>
+      <c r="E16" s="3" t="n">
+        <v>0.17609947810948</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A14:E14"/>
+  </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -128,5 +805,626 @@
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:J42"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="Z22" colorId="64" zoomScale="53" zoomScaleNormal="53" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AC179" activeCellId="0" sqref="AC179"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="22.4285714285714"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="23.1275510204082"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="11.5204081632653"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="0" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2" t="n">
+        <v>124235076333.333</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="B4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" s="2" t="n">
+        <v>89249062500</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="B5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" s="2" t="n">
+        <v>175595167166.667</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="B6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" s="2" t="n">
+        <v>153741474666.667</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="B7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" s="2" t="n">
+        <v>182057049833.333</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="B8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" s="9" t="n">
+        <v>282458569250</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="B9" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="C9" s="2" t="n">
+        <v>306075805166.667</v>
+      </c>
+      <c r="F9" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="G9" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="H9" s="2" t="n">
+        <v>144975566100</v>
+      </c>
+      <c r="I9" s="2" t="n">
+        <v>38487168892.9845</v>
+      </c>
+      <c r="J9" s="2" t="n">
+        <v>17211985181.2457</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B10" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="C10" s="2" t="n">
+        <v>241497990000</v>
+      </c>
+      <c r="F10" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="G10" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="H10" s="2" t="n">
+        <v>234722109937.5</v>
+      </c>
+      <c r="I10" s="2" t="n">
+        <v>73806691214.9747</v>
+      </c>
+      <c r="J10" s="2" t="n">
+        <v>30131455513.3077</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B11" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="C11" s="2" t="n">
+        <v>336677212208.333</v>
+      </c>
+      <c r="F11" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="G11" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="H11" s="2" t="n">
+        <v>258974135458.333</v>
+      </c>
+      <c r="I11" s="2" t="n">
+        <v>101749179328.791</v>
+      </c>
+      <c r="J11" s="2" t="n">
+        <v>41538928517.0798</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B12" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="C12" s="2" t="n">
+        <v>167230730583.333</v>
+      </c>
+      <c r="F12" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="G12" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="H12" s="2" t="n">
+        <v>391625801211.905</v>
+      </c>
+      <c r="I12" s="2" t="n">
+        <v>95846005650.8933</v>
+      </c>
+      <c r="J12" s="2" t="n">
+        <v>36226385015.8793</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B13" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="C13" s="2" t="n">
+        <v>158284440500</v>
+      </c>
+      <c r="F13" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="G13" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="H13" s="2" t="n">
+        <v>306852083854.762</v>
+      </c>
+      <c r="I13" s="2" t="n">
+        <v>94238963594.1268</v>
+      </c>
+      <c r="J13" s="2" t="n">
+        <v>35618980211.7899</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="B14" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="C14" s="2" t="n">
+        <v>198566481166.667</v>
+      </c>
+      <c r="F14" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="G14" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="H14" s="2" t="n">
+        <v>233872142283.333</v>
+      </c>
+      <c r="I14" s="2" t="n">
+        <v>21480261988.5131</v>
+      </c>
+      <c r="J14" s="2" t="n">
+        <v>9606265196.16403</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="5" t="n">
+        <v>10</v>
+      </c>
+      <c r="B15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="C15" s="2" t="n">
+        <v>337823313000</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="B16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="C16" s="2" t="n">
+        <v>317599048333.333</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="B17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="C17" s="2" t="n">
+        <v>154870656916.667</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="B18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="C18" s="2" t="n">
+        <v>118335894500</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="B19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="C19" s="2" t="n">
+        <v>259032848166.667</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="8" t="n">
+        <v>10</v>
+      </c>
+      <c r="B20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="C20" s="2" t="n">
+        <v>366183051833.333</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="5" t="n">
+        <v>14</v>
+      </c>
+      <c r="B21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="C21" s="2" t="n">
+        <v>293945711000</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="6" t="n">
+        <v>14</v>
+      </c>
+      <c r="B22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="C22" s="2" t="n">
+        <v>489899152416.667</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="6" t="n">
+        <v>14</v>
+      </c>
+      <c r="B23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="C23" s="2" t="n">
+        <v>390243381333.333</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="6" t="n">
+        <v>14</v>
+      </c>
+      <c r="B24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="C24" s="2" t="n">
+        <v>471071286800</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="6" t="n">
+        <v>14</v>
+      </c>
+      <c r="B25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="C25" s="2" t="n">
+        <v>396896023333.333</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="6" t="n">
+        <v>14</v>
+      </c>
+      <c r="B26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="C26" s="2" t="n">
+        <v>235520981100</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="8" t="n">
+        <v>14</v>
+      </c>
+      <c r="B27" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="C27" s="2" t="n">
+        <v>463804072500</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="5" t="n">
+        <v>17</v>
+      </c>
+      <c r="B28" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="C28" s="2" t="n">
+        <v>483909625083.333</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="6" t="n">
+        <v>17</v>
+      </c>
+      <c r="B29" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="C29" s="9" t="n">
+        <v>582858619000</v>
+      </c>
+      <c r="D29" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="6" t="n">
+        <v>17</v>
+      </c>
+      <c r="B30" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="C30" s="2" t="n">
+        <v>264589303866.667</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="6" t="n">
+        <v>17</v>
+      </c>
+      <c r="B31" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="C31" s="9" t="n">
+        <v>87489377833.3333</v>
+      </c>
+      <c r="D31" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="6" t="n">
+        <v>17</v>
+      </c>
+      <c r="B32" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="C32" s="2" t="n">
+        <v>206022733466.667</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="6" t="n">
+        <v>17</v>
+      </c>
+      <c r="B33" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="C33" s="2" t="n">
+        <v>371309377900</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="6" t="n">
+        <v>17</v>
+      </c>
+      <c r="B34" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="C34" s="2" t="n">
+        <v>284579231500</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="6" t="n">
+        <v>17</v>
+      </c>
+      <c r="B35" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="C35" s="2" t="n">
+        <v>303659799750</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="8" t="n">
+        <v>17</v>
+      </c>
+      <c r="B36" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="C36" s="2" t="n">
+        <v>233894515416.667</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="5" t="n">
+        <v>20</v>
+      </c>
+      <c r="B37" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="C37" s="2" t="n">
+        <v>210775920500</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="6" t="n">
+        <v>20</v>
+      </c>
+      <c r="B38" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="C38" s="9" t="n">
+        <v>120019464916.667</v>
+      </c>
+      <c r="D38" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="6" t="n">
+        <v>20</v>
+      </c>
+      <c r="B39" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="C39" s="2" t="n">
+        <v>245099588750</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="6" t="n">
+        <v>20</v>
+      </c>
+      <c r="B40" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="C40" s="2" t="n">
+        <v>244752749666.667</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="6" t="n">
+        <v>20</v>
+      </c>
+      <c r="B41" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="C41" s="2" t="n">
+        <v>211266012500</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="8" t="n">
+        <v>20</v>
+      </c>
+      <c r="B42" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="C42" s="2" t="n">
+        <v>257466440000</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="F7:J7"/>
+  </mergeCells>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>